--- a/SortingData.xlsx
+++ b/SortingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickFaul\GitHub\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickfaul\GitHub\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37228FD3-32A7-429C-9172-404FA03DF15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC2FCA-BB28-4D99-A53A-0BB3452EF5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22575" yWindow="1845" windowWidth="21600" windowHeight="11505" xr2:uid="{BE73F046-4AD8-48D4-9A1A-F6A64587F428}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{BE73F046-4AD8-48D4-9A1A-F6A64587F428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +104,1642 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sorting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time for Sample Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2584759542470826E-2"/>
+          <c:y val="0.10244087135079555"/>
+          <c:w val="0.90058279772548755"/>
+          <c:h val="0.71782943477373939"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30004572868347101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39488554000854398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53356170654296797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60808467864990201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68904995918273904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80048489570617598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88704276084899902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07858562469482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1470823287963801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.15240502357482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5386-4AA8-9C61-4310347E27B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1839184761047301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3585867881774898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6726176738739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8297495841979901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.99499082565307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5804202556610099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.07485032081604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5989675521850497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.329833984375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.083350181579499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5386-4AA8-9C61-4310347E27B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bucket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.155999898911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37000012397799997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56800007820099996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83999991416899999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0460000038099999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3359999656699999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5230000019100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7760000228899999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.09000015259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2579998969999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5386-4AA8-9C61-4310347E27B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="472361184"/>
+        <c:axId val="472368728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5386-4AA8-9C61-4310347E27B1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5386-4AA8-9C61-4310347E27B1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>400000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>600000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>800000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>900000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$2:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-5386-4AA8-9C61-4310347E27B1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="472361184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size of Array</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472368728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472368728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472361184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305AF25F-F9CE-4D32-A0ED-40DC8BBFF0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,154 +2042,172 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
         <v>100000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.30004572868347101</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1.1839184761047301</v>
       </c>
-      <c r="G2">
-        <v>13.9291012287139</v>
+      <c r="G2" s="1">
+        <v>0.155999898911</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>200000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.39488554000854398</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2.3585867881774898</v>
       </c>
-      <c r="G3">
-        <v>110.094092607498</v>
+      <c r="G3" s="1">
+        <v>0.37000012397799997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>300000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.53356170654296797</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3.6726176738739</v>
       </c>
-      <c r="G4">
-        <v>340.51813817024203</v>
+      <c r="G4" s="1">
+        <v>0.56800007820099996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>400000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.60808467864990201</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4.8297495841979901</v>
       </c>
-      <c r="G5">
-        <v>1039.80572462081</v>
+      <c r="G5" s="1">
+        <v>0.83999991416899999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>500000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.68904995918273904</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5.99499082565307</v>
       </c>
-      <c r="G6">
-        <v>1953.92702007293</v>
+      <c r="G6" s="1">
+        <v>1.0460000038099999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>600000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.80048489570617598</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>7.5804202556610099</v>
       </c>
+      <c r="G7" s="1">
+        <v>1.3359999656699999</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>700000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.88704276084899902</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>9.07485032081604</v>
       </c>
+      <c r="G8" s="1">
+        <v>1.5230000019100001</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
         <v>800000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.07858562469482</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>9.5989675521850497</v>
       </c>
+      <c r="G9" s="1">
+        <v>1.7760000228899999</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>900000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.1470823287963801</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>11.329833984375</v>
       </c>
+      <c r="G10" s="1">
+        <v>2.09000015259</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>1000000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.15240502357482</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>12.083350181579499</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.2579998969999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SortingData.xlsx
+++ b/SortingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickfaul\GitHub\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC2FCA-BB28-4D99-A53A-0BB3452EF5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E949F4-AA8E-490C-BDC5-70D72B4655DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{BE73F046-4AD8-48D4-9A1A-F6A64587F428}"/>
   </bookViews>
@@ -93,7 +93,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,13 +160,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sorting</a:t>
+              <a:t>Sorting Time for Sample Size</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time for Sample Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -198,11 +212,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,7 +290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -313,18 +327,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5386-4AA8-9C61-4310347E27B1}"/>
+              <c16:uniqueId val="{00000000-5386-4AA8-9C61-4310347E27B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -398,7 +412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -437,16 +451,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5386-4AA8-9C61-4310347E27B1}"/>
+              <c16:uniqueId val="{00000001-5386-4AA8-9C61-4310347E27B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,7 +534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$11</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -557,9 +571,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5386-4AA8-9C61-4310347E27B1}"/>
+              <c16:uniqueId val="{00000002-5386-4AA8-9C61-4310347E27B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -575,295 +589,7 @@
         <c:overlap val="-27"/>
         <c:axId val="472361184"/>
         <c:axId val="472368728"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>400000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>500000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>600000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>700000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>800000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>900000</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1000000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5386-4AA8-9C61-4310347E27B1}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>400000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>500000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>600000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>700000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>800000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>900000</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1000000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$2:$D$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-5386-4AA8-9C61-4310347E27B1}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>400000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>500000</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>600000</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>700000</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>800000</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>900000</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1000000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$2:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-5386-4AA8-9C61-4310347E27B1}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="472361184"/>
@@ -1159,12 +885,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1705,14 +1428,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>40481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>579437</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1740,6 +1463,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CDC0E82-3265-4213-BDBC-BE337EEF5B14}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:D11" xr:uid="{959B6249-8FAF-4CA8-8A85-862D2DFD38A3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C80CBD6B-53B5-4728-AB25-BF9FE2146A78}" name="Sample Size" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{01E6FFC5-2FD4-45A5-963E-B1C08E3E51EC}" name="Counting" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2F13F0BC-C7D9-4415-BC94-E02EF9F7FEB8}" name="Radix" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{60503B05-53E4-4E33-8290-7984D030B050}" name="Bucket" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2039,169 +1775,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F970DA-E8D5-45F7-938C-F776FBC59854}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>100000</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.30004572868347101</v>
+      </c>
       <c r="C2" s="1">
-        <v>0.30004572868347101</v>
-      </c>
-      <c r="E2" s="1">
         <v>1.1839184761047301</v>
       </c>
-      <c r="G2" s="1">
+      <c r="D2" s="1">
         <v>0.155999898911</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>200000</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.39488554000854398</v>
+      </c>
       <c r="C3" s="1">
-        <v>0.39488554000854398</v>
-      </c>
-      <c r="E3" s="1">
         <v>2.3585867881774898</v>
       </c>
-      <c r="G3" s="1">
+      <c r="D3" s="1">
         <v>0.37000012397799997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>300000</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.53356170654296797</v>
+      </c>
       <c r="C4" s="1">
-        <v>0.53356170654296797</v>
-      </c>
-      <c r="E4" s="1">
         <v>3.6726176738739</v>
       </c>
-      <c r="G4" s="1">
+      <c r="D4" s="1">
         <v>0.56800007820099996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>400000</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.60808467864990201</v>
+      </c>
       <c r="C5" s="1">
-        <v>0.60808467864990201</v>
-      </c>
-      <c r="E5" s="1">
         <v>4.8297495841979901</v>
       </c>
-      <c r="G5" s="1">
+      <c r="D5" s="1">
         <v>0.83999991416899999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>500000</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.68904995918273904</v>
+      </c>
       <c r="C6" s="1">
-        <v>0.68904995918273904</v>
-      </c>
-      <c r="E6" s="1">
         <v>5.99499082565307</v>
       </c>
-      <c r="G6" s="1">
+      <c r="D6" s="1">
         <v>1.0460000038099999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>600000</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.80048489570617598</v>
+      </c>
       <c r="C7" s="1">
-        <v>0.80048489570617598</v>
-      </c>
-      <c r="E7" s="1">
         <v>7.5804202556610099</v>
       </c>
-      <c r="G7" s="1">
+      <c r="D7" s="1">
         <v>1.3359999656699999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>700000</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.88704276084899902</v>
+      </c>
       <c r="C8" s="1">
-        <v>0.88704276084899902</v>
-      </c>
-      <c r="E8" s="1">
         <v>9.07485032081604</v>
       </c>
-      <c r="G8" s="1">
+      <c r="D8" s="1">
         <v>1.5230000019100001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>800000</v>
       </c>
+      <c r="B9" s="1">
+        <v>1.07858562469482</v>
+      </c>
       <c r="C9" s="1">
-        <v>1.07858562469482</v>
-      </c>
-      <c r="E9" s="1">
         <v>9.5989675521850497</v>
       </c>
-      <c r="G9" s="1">
+      <c r="D9" s="1">
         <v>1.7760000228899999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>900000</v>
       </c>
+      <c r="B10" s="1">
+        <v>1.1470823287963801</v>
+      </c>
       <c r="C10" s="1">
-        <v>1.1470823287963801</v>
-      </c>
-      <c r="E10" s="1">
         <v>11.329833984375</v>
       </c>
-      <c r="G10" s="1">
+      <c r="D10" s="1">
         <v>2.09000015259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1000000</v>
       </c>
+      <c r="B11" s="1">
+        <v>1.15240502357482</v>
+      </c>
       <c r="C11" s="1">
-        <v>1.15240502357482</v>
-      </c>
-      <c r="E11" s="1">
         <v>12.083350181579499</v>
       </c>
-      <c r="G11" s="1">
+      <c r="D11" s="1">
         <v>2.2579998969999999</v>
       </c>
     </row>
@@ -2209,5 +1946,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>